--- a/projects/test_building/input/Relation_SubSector_UnitUserType.xlsx
+++ b/projects/test_building/input/Relation_SubSector_UnitUserType.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393A7742-8262-E745-B896-099156A31E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74511C79-BE94-7C47-B588-4AC957E218B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3960" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -82,8 +82,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B24" totalsRowShown="0">
-  <autoFilter ref="A1:B24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B22" totalsRowShown="0">
+  <autoFilter ref="A1:B22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="id_subsector"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_unit_user_type"/>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -416,147 +416,131 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>61</v>
+      <c r="A7" s="1">
+        <v>31</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>61</v>
+      <c r="A8" s="1">
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>38</v>
+        <v>310</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>311</v>
+      <c r="A19">
+        <v>313</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>312</v>
+      <c r="A20">
+        <v>314</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>315</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>316</v>
-      </c>
-      <c r="B24">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
